--- a/04_tables/incident_charges.xlsx
+++ b/04_tables/incident_charges.xlsx
@@ -57,30 +57,30 @@
     <t>ASSIST EMS</t>
   </si>
   <si>
+    <t>SUSPICIOUS CONDITION</t>
+  </si>
+  <si>
     <t>ALCOHOL VIOLATIONS</t>
   </si>
   <si>
-    <t>SUSPICIOUS CONDITION</t>
-  </si>
-  <si>
     <t>BURGLARY-NO FORCE</t>
   </si>
   <si>
     <t>DAMAGE TO PROPERTY(NON-CRIMINAL)</t>
   </si>
   <si>
+    <t>B&amp;E VEH (ATT LAR F/VEH)</t>
+  </si>
+  <si>
+    <t>FOUND PROPERTY</t>
+  </si>
+  <si>
     <t>COMMUNICATING THREATS -INTIMIDATION, NON PHYSICAL THREAT</t>
   </si>
   <si>
-    <t>B&amp;E VEH (ATT LAR F/VEH)</t>
-  </si>
-  <si>
     <t>HARASSMENT</t>
   </si>
   <si>
-    <t>FOUND PROPERTY</t>
-  </si>
-  <si>
     <t>COMMUNITY OUTREACH</t>
   </si>
   <si>
@@ -93,15 +93,15 @@
     <t>LARCENY FROM MOTOR VEHICLE</t>
   </si>
   <si>
+    <t>LARCENY OF BICYCLE</t>
+  </si>
+  <si>
+    <t>LARCENY FROM BUILDING</t>
+  </si>
+  <si>
     <t>ASSIST OTHER AGENCY</t>
   </si>
   <si>
-    <t>LARCENY FROM BUILDING</t>
-  </si>
-  <si>
-    <t>LARCENY OF BICYCLE</t>
-  </si>
-  <si>
     <t>ASSAULT ON FEMALE</t>
   </si>
   <si>
@@ -111,31 +111,34 @@
     <t>FRAUD-ALL OTHER</t>
   </si>
   <si>
+    <t>DRUG VIOLATIONS</t>
+  </si>
+  <si>
+    <t>DISTURBANCE</t>
+  </si>
+  <si>
+    <t>SIMPLE POSSESSION</t>
+  </si>
+  <si>
+    <t>INVOLUNTARY COMMITMENT-NON CRIMINAL DETAINMENT</t>
+  </si>
+  <si>
+    <t>LARCENY FROM RESIDENCE</t>
+  </si>
+  <si>
+    <t>VOLUNTARY MENTAL COMMITMENT</t>
+  </si>
+  <si>
     <t>FUNERAL ESCORT</t>
   </si>
   <si>
-    <t>VOLUNTARY MENTAL COMMITMENT</t>
-  </si>
-  <si>
-    <t>LARCENY FROM RESIDENCE</t>
-  </si>
-  <si>
-    <t>DRUG VIOLATIONS</t>
-  </si>
-  <si>
-    <t>DISTURBANCE</t>
-  </si>
-  <si>
-    <t>SIMPLE POSSESSION</t>
-  </si>
-  <si>
-    <t>INVOLUNTARY COMMITMENT-NON CRIMINAL DETAINMENT</t>
+    <t>DAMAGE TO PROPERTY</t>
   </si>
   <si>
     <t>BURGLARY W/FORCE</t>
   </si>
   <si>
-    <t>DAMAGE TO PROPERTY</t>
+    <t>FIGHTING/ AFFRAY</t>
   </si>
   <si>
     <t>AUTOMOBILE THEFT</t>
@@ -144,817 +147,814 @@
     <t>OVERDOSE</t>
   </si>
   <si>
-    <t>FIGHTING/ AFFRAY</t>
-  </si>
-  <si>
     <t>ARMED ROBBERY</t>
   </si>
   <si>
     <t>TOWED VEHICLE</t>
   </si>
   <si>
+    <t>LOST PROPERTY</t>
+  </si>
+  <si>
+    <t>DEATH INVESTIGATION</t>
+  </si>
+  <si>
+    <t>DRIVING WHILE IMPAIRED</t>
+  </si>
+  <si>
+    <t>LOUD MUSIC/PARTY/OTHER NOISE</t>
+  </si>
+  <si>
+    <t>ASSAULT WITH A DEADLY WEAPON</t>
+  </si>
+  <si>
     <t>RESISTING ARREST</t>
   </si>
   <si>
-    <t>DRIVING WHILE IMPAIRED</t>
-  </si>
-  <si>
-    <t>ASSAULT WITH A DEADLY WEAPON</t>
-  </si>
-  <si>
-    <t>LOUD MUSIC/PARTY/OTHER NOISE</t>
-  </si>
-  <si>
-    <t>DEATH INVESTIGATION</t>
-  </si>
-  <si>
-    <t>LOST PROPERTY</t>
-  </si>
-  <si>
     <t>LARCENY</t>
   </si>
   <si>
     <t>LOUD PARTY FOLLOW UP</t>
   </si>
   <si>
+    <t>LOUD PARTY</t>
+  </si>
+  <si>
+    <t>PHYSICAL SIMPLE ASSAULT-NON AGGRAVATED</t>
+  </si>
+  <si>
+    <t>EQUIP/PARAPHERNALIA-POSS/CONCEALING</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS VEHICLE</t>
+  </si>
+  <si>
+    <t>DOMESTIC DISTURBANCE</t>
+  </si>
+  <si>
     <t>LARCENY OF CELL PHONE</t>
   </si>
   <si>
-    <t>DOMESTIC DISTURBANCE</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS VEHICLE</t>
-  </si>
-  <si>
-    <t>LOUD PARTY</t>
-  </si>
-  <si>
-    <t>EQUIP/PARAPHERNALIA-POSS/CONCEALING</t>
-  </si>
-  <si>
-    <t>PHYSICAL SIMPLE ASSAULT-NON AGGRAVATED</t>
+    <t>REFUSE TO LEAVE</t>
+  </si>
+  <si>
+    <t>SIMPLE ASSAULT</t>
+  </si>
+  <si>
+    <t>WARRANT SERVICE</t>
+  </si>
+  <si>
+    <t>INDECENT EXPOSURE</t>
+  </si>
+  <si>
+    <t>CHECK WELL BEING</t>
   </si>
   <si>
     <t>SUSPICIOUS PERSONS</t>
   </si>
   <si>
-    <t>INDECENT EXPOSURE</t>
-  </si>
-  <si>
-    <t>REFUSE TO LEAVE</t>
-  </si>
-  <si>
-    <t>SIMPLE ASSAULT</t>
-  </si>
-  <si>
-    <t>WARRANT SERVICE</t>
-  </si>
-  <si>
-    <t>CHECK WELL BEING</t>
+    <t>TRAFFIC COMPLAINT</t>
+  </si>
+  <si>
+    <t>SEXUAL BATTERY</t>
+  </si>
+  <si>
+    <t>DAMAGE TO PROPERTY (WILLFUL)</t>
+  </si>
+  <si>
+    <t>POSSESSING/CONCEALING STOLEN PROPERTY</t>
   </si>
   <si>
     <t>ALARM</t>
   </si>
   <si>
+    <t>PEEPING TOM</t>
+  </si>
+  <si>
     <t>ROBBERY</t>
   </si>
   <si>
+    <t>B&amp;E VEH</t>
+  </si>
+  <si>
+    <t>IDENTITY THEFT</t>
+  </si>
+  <si>
+    <t>CREDIT CARD/ATM FRAUD</t>
+  </si>
+  <si>
     <t>50B ORDER VIOLATION</t>
   </si>
   <si>
-    <t>TRAFFIC COMPLAINT</t>
-  </si>
-  <si>
-    <t>B&amp;E VEH</t>
-  </si>
-  <si>
-    <t>POSSESSING/CONCEALING STOLEN PROPERTY</t>
-  </si>
-  <si>
     <t>LOUD MUSIC</t>
   </si>
   <si>
-    <t>DAMAGE TO PROPERTY (WILLFUL)</t>
-  </si>
-  <si>
-    <t>IDENTITY THEFT</t>
-  </si>
-  <si>
-    <t>CREDIT CARD/ATM FRAUD</t>
-  </si>
-  <si>
     <t>LARCENY AFTER B&amp;E</t>
   </si>
   <si>
-    <t>SEXUAL BATTERY</t>
-  </si>
-  <si>
-    <t>PEEPING TOM</t>
+    <t>URINATING IN PUBLIC</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS</t>
   </si>
   <si>
     <t>CRUELTY TO ANIMALS (CITY ORDINANCE)</t>
   </si>
   <si>
+    <t>KIDNAPPING</t>
+  </si>
+  <si>
+    <t>MISSING PERSON</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS CONDITIONS</t>
+  </si>
+  <si>
+    <t>CHILD NEGLECT (NO ASSAULT)</t>
+  </si>
+  <si>
+    <t>DOMESTIC ASSISTANCE</t>
+  </si>
+  <si>
+    <t>PROBATION VIOLATION</t>
+  </si>
+  <si>
+    <t>OPEN CONTAINER</t>
+  </si>
+  <si>
+    <t>UNAUTHORIZED USE OF CONVEYANCE</t>
+  </si>
+  <si>
+    <t>CHECK ON WELL BEING</t>
+  </si>
+  <si>
+    <t>NARCOTIC SNIFF</t>
+  </si>
+  <si>
+    <t>LARCENY OF MOTORCYCLE / MOPED</t>
+  </si>
+  <si>
+    <t>LARCENY FROM AUTO /PARTS AND ACCESSORIES</t>
+  </si>
+  <si>
+    <t>VERBAL ARGUMENT</t>
+  </si>
+  <si>
+    <t>OBTAINING MONEY BY FALSE PRETENSE</t>
+  </si>
+  <si>
+    <t>OPEN CONTAINER OF MALT BEVERAGE</t>
+  </si>
+  <si>
+    <t>ASSIST FIRE DEPARTMENT</t>
+  </si>
+  <si>
     <t>CREDIT CARD FRAUD</t>
   </si>
   <si>
-    <t>UNAUTHORIZED USE OF CONVEYANCE</t>
-  </si>
-  <si>
-    <t>DOMESTIC ASSISTANCE</t>
-  </si>
-  <si>
-    <t>VERBAL ARGUMENT</t>
-  </si>
-  <si>
-    <t>CHECK ON WELL BEING</t>
-  </si>
-  <si>
-    <t>OBTAINING MONEY BY FALSE PRETENSE</t>
-  </si>
-  <si>
-    <t>ASSIST FIRE DEPARTMENT</t>
-  </si>
-  <si>
-    <t>OPEN CONTAINER OF MALT BEVERAGE</t>
-  </si>
-  <si>
-    <t>OPEN CONTAINER</t>
-  </si>
-  <si>
-    <t>KIDNAPPING</t>
-  </si>
-  <si>
-    <t>CHILD NEGLECT (NO ASSAULT)</t>
-  </si>
-  <si>
-    <t>MISSING PERSON</t>
-  </si>
-  <si>
-    <t>PROBATION VIOLATION</t>
-  </si>
-  <si>
-    <t>NARCOTIC SNIFF</t>
-  </si>
-  <si>
-    <t>URINATING IN PUBLIC</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS CONDITIONS</t>
-  </si>
-  <si>
-    <t>LARCENY FROM AUTO /PARTS AND ACCESSORIES</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS</t>
-  </si>
-  <si>
-    <t>LARCENY OF MOTORCYCLE / MOPED</t>
+    <t>NEIGHBOR DISPUTE</t>
+  </si>
+  <si>
+    <t>B&amp;E SHED-FORCE</t>
+  </si>
+  <si>
+    <t>DOMESTIC AGGRAVATED ASSAULT</t>
+  </si>
+  <si>
+    <t>CIVIL MATTER</t>
+  </si>
+  <si>
+    <t>LOUD NOISE</t>
+  </si>
+  <si>
+    <t>WELL-BEING CHECK</t>
+  </si>
+  <si>
+    <t>ASSIST CITIZEN</t>
   </si>
   <si>
     <t>SUSPICIOUS ACTIVITY</t>
   </si>
   <si>
+    <t>K-9 SNIFF</t>
+  </si>
+  <si>
+    <t>PARKING COMPLAINT</t>
+  </si>
+  <si>
+    <t>TRAFFIC / DIRECTED PATROL</t>
+  </si>
+  <si>
+    <t>ATTEMPTED SUICIDE</t>
+  </si>
+  <si>
+    <t>FICT/ALT TITLE/REG CARD/TAG</t>
+  </si>
+  <si>
+    <t>CHECK ON WELL-BEING</t>
+  </si>
+  <si>
+    <t>CALL FOR SERVICE</t>
+  </si>
+  <si>
+    <t>SIMPLE POSSESSION OF MARIJUANA</t>
+  </si>
+  <si>
+    <t>IMPAIRED DRIVING DWI</t>
+  </si>
+  <si>
+    <t>NO INSURANCE</t>
+  </si>
+  <si>
+    <t>THREATENING PHONE CALLS</t>
+  </si>
+  <si>
+    <t>HARASSING PHONE CALLS-NO THREATS</t>
+  </si>
+  <si>
+    <t>IMPROPERLY PARKED VEHICLE</t>
+  </si>
+  <si>
+    <t>LICENSE CHECKPOINT</t>
+  </si>
+  <si>
+    <t>PARAPHERNALIA- USING/ EQUIPMENT</t>
+  </si>
+  <si>
+    <t>POSSESSING STOLEN PROPERTY</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS CIRCUMSTANCES</t>
+  </si>
+  <si>
+    <t>SEXUAL ASSAULT</t>
+  </si>
+  <si>
+    <t>UNDISCIPLINED CHILD</t>
+  </si>
+  <si>
     <t>VEHICLE UNLOCK</t>
   </si>
   <si>
-    <t>UNDISCIPLINED CHILD</t>
-  </si>
-  <si>
-    <t>CIVIL MATTER</t>
-  </si>
-  <si>
-    <t>HARASSING PHONE CALLS-NO THREATS</t>
-  </si>
-  <si>
-    <t>CHECK ON WELL-BEING</t>
+    <t>DWLR</t>
+  </si>
+  <si>
+    <t>K9 SNIFF</t>
+  </si>
+  <si>
+    <t>FORCIBLE RAPE</t>
+  </si>
+  <si>
+    <t>USING FRAUDULENT ID CARD</t>
   </si>
   <si>
     <t>NUISANCE</t>
   </si>
   <si>
-    <t>THREATENING PHONE CALLS</t>
-  </si>
-  <si>
-    <t>PARAPHERNALIA- USING/ EQUIPMENT</t>
-  </si>
-  <si>
-    <t>SIMPLE POSSESSION OF MARIJUANA</t>
-  </si>
-  <si>
-    <t>FICT/ALT TITLE/REG CARD/TAG</t>
-  </si>
-  <si>
-    <t>IMPAIRED DRIVING DWI</t>
-  </si>
-  <si>
-    <t>SEXUAL ASSAULT</t>
-  </si>
-  <si>
-    <t>USING FRAUDULENT ID CARD</t>
-  </si>
-  <si>
-    <t>PARKING COMPLAINT</t>
-  </si>
-  <si>
-    <t>NO INSURANCE</t>
-  </si>
-  <si>
-    <t>DOMESTIC AGGRAVATED ASSAULT</t>
-  </si>
-  <si>
-    <t>LOUD NOISE</t>
-  </si>
-  <si>
-    <t>ATTEMPTED SUICIDE</t>
-  </si>
-  <si>
-    <t>LICENSE CHECKPOINT</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS CIRCUMSTANCES</t>
-  </si>
-  <si>
     <t>COMMUNICATING THREATS</t>
   </si>
   <si>
-    <t>K9 SNIFF</t>
-  </si>
-  <si>
-    <t>B&amp;E SHED-FORCE</t>
-  </si>
-  <si>
-    <t>IMPROPERLY PARKED VEHICLE</t>
-  </si>
-  <si>
-    <t>NEIGHBOR DISPUTE</t>
-  </si>
-  <si>
-    <t>ASSIST CITIZEN</t>
-  </si>
-  <si>
-    <t>K-9 SNIFF</t>
-  </si>
-  <si>
-    <t>WELL-BEING CHECK</t>
-  </si>
-  <si>
-    <t>CALL FOR SERVICE</t>
-  </si>
-  <si>
-    <t>DWLR</t>
-  </si>
-  <si>
-    <t>TRAFFIC / DIRECTED PATROL</t>
-  </si>
-  <si>
-    <t>FORCIBLE RAPE</t>
-  </si>
-  <si>
     <t>UNDERAGE CONSUMPTION</t>
   </si>
   <si>
-    <t>POSSESSING STOLEN PROPERTY</t>
+    <t>MURDER &amp; NONNEGLIENT MANSLAUGHTER</t>
+  </si>
+  <si>
+    <t>SELL CRACK COCAINE</t>
+  </si>
+  <si>
+    <t>VERBAL DOMESTIC</t>
+  </si>
+  <si>
+    <t>DISCHARGING PYROTECHNICS - USE/FIREWORKS</t>
+  </si>
+  <si>
+    <t>SUICIDE ATTEMPT</t>
+  </si>
+  <si>
+    <t>SUICIDAL THREATS</t>
+  </si>
+  <si>
+    <t>PARKING DISPUTE</t>
+  </si>
+  <si>
+    <t>ARGUMENT OVER CHILD CARE</t>
+  </si>
+  <si>
+    <t>SEXUAL HARASSMENT</t>
+  </si>
+  <si>
+    <t>ASSIST CPS</t>
+  </si>
+  <si>
+    <t>STATUTORY RAPE</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS INCIDENT</t>
+  </si>
+  <si>
+    <t>AGGRAVATED ASSAULT</t>
+  </si>
+  <si>
+    <t>2ND DEGREE TRESPASSING</t>
+  </si>
+  <si>
+    <t>PUBLIC INEBRIATE</t>
+  </si>
+  <si>
+    <t>CHILD ABUSE/ASSAULT-NO INJURY</t>
+  </si>
+  <si>
+    <t>DISCHARGING FIREARM</t>
+  </si>
+  <si>
+    <t>LARCENY OF FIREARM</t>
+  </si>
+  <si>
+    <t>POSSIBLE DRUG ACTIVITY</t>
+  </si>
+  <si>
+    <t>FELONY POSSESSION OF COCAINE</t>
+  </si>
+  <si>
+    <t>ASSIST CHATHAM COUNTY</t>
+  </si>
+  <si>
+    <t>WELL BEING CHECK</t>
+  </si>
+  <si>
+    <t>MENTAL DISORDER</t>
+  </si>
+  <si>
+    <t>K-9 DEMO/ COMMUNITY TALK</t>
+  </si>
+  <si>
+    <t>1ST DEGREE TRESPASS</t>
+  </si>
+  <si>
+    <t>POSSESSING STOLEN FIREARM</t>
+  </si>
+  <si>
+    <t>OUTSTANDING WARRANT</t>
+  </si>
+  <si>
+    <t>ATTEMPTED B&amp;E RESIDENCE-FORCE</t>
+  </si>
+  <si>
+    <t>B&amp;E BUSINESS-FORCE</t>
+  </si>
+  <si>
+    <t>PUBLIC ASSISTANCE</t>
+  </si>
+  <si>
+    <t>50B VIOLATION</t>
+  </si>
+  <si>
+    <t>ASSISTANCE</t>
+  </si>
+  <si>
+    <t>RESIST, DELAY AND OBSTRUCT</t>
+  </si>
+  <si>
+    <t>LARCENY OF MOTOR VEHICLE</t>
+  </si>
+  <si>
+    <t>OPEN CONTAINER VIOLATION</t>
+  </si>
+  <si>
+    <t>POSSESSION OF DRUG PARAPHERNALIA</t>
+  </si>
+  <si>
+    <t>POSS STOLEN PROPERTY</t>
+  </si>
+  <si>
+    <t>MISUSE OF PUBLIC SEATING</t>
+  </si>
+  <si>
+    <t>UNLAWFULLY OBTAINING CREDIT CARD</t>
+  </si>
+  <si>
+    <t>LARCENY OF MOTORCYCLE</t>
+  </si>
+  <si>
+    <t>POSSESSING STOLEN VEHICLE</t>
+  </si>
+  <si>
+    <t>NUISANCE COMPLAINT</t>
+  </si>
+  <si>
+    <t>DOG BARKING COMPLAINT</t>
+  </si>
+  <si>
+    <t>LARCENY OF PATIO CUSHIONS</t>
+  </si>
+  <si>
+    <t>B&amp;E VEH (NO PROPERTY TAKEN)</t>
+  </si>
+  <si>
+    <t>CRASH INVESTIGATION</t>
+  </si>
+  <si>
+    <t>UNFOUNDED LOUD NOISE</t>
+  </si>
+  <si>
+    <t>TRAFFIC STOP</t>
+  </si>
+  <si>
+    <t>LARCENY OF A LICENSE PLATE</t>
+  </si>
+  <si>
+    <t>RESIST/DELAY/OBSTRUCT</t>
+  </si>
+  <si>
+    <t>NOISY FOWL</t>
+  </si>
+  <si>
+    <t>DOMESTIC ASSIST</t>
+  </si>
+  <si>
+    <t>FOUND I PHONE</t>
+  </si>
+  <si>
+    <t>AWDWIKISI</t>
+  </si>
+  <si>
+    <t>SELL COCAINE</t>
+  </si>
+  <si>
+    <t>FORGERY- USING/UTTERING</t>
+  </si>
+  <si>
+    <t>VEHICLE FIRE</t>
+  </si>
+  <si>
+    <t>UNLOCK VEHICLE</t>
+  </si>
+  <si>
+    <t>ABANDONED PROPERTY</t>
+  </si>
+  <si>
+    <t>DOG CALL</t>
+  </si>
+  <si>
+    <t>VANDALISM/DAMAGE TO PROPERTY</t>
+  </si>
+  <si>
+    <t>INTOXICATED AND DISRUPTIVE</t>
+  </si>
+  <si>
+    <t>EMBEZZLEMENT- OTHER</t>
+  </si>
+  <si>
+    <t>INFORMATION(DUPLICATE REPORT)</t>
+  </si>
+  <si>
+    <t>PARAPHERNALIA- POSSESSING/CONCEALING EQUIPMENT</t>
+  </si>
+  <si>
+    <t>ABANDONED HOUSE/PROERTY</t>
+  </si>
+  <si>
+    <t>UNAUTHORIZED USE OF BICYCLE</t>
+  </si>
+  <si>
+    <t>LITTERING</t>
+  </si>
+  <si>
+    <t>ANIMAL DISPATCH</t>
+  </si>
+  <si>
+    <t>UNSAFE MOVEMENT</t>
+  </si>
+  <si>
+    <t>CHILD ABUSE-NON ASSAULTIVE</t>
+  </si>
+  <si>
+    <t>NARCOTIC IVIOLATION</t>
+  </si>
+  <si>
+    <t>ASSAULT INFLICTING SERIOUS INJURY</t>
+  </si>
+  <si>
+    <t>ARSON</t>
+  </si>
+  <si>
+    <t>ASSIST OC EMS</t>
+  </si>
+  <si>
+    <t>VEHICLE DAMAGE</t>
+  </si>
+  <si>
+    <t>HOMICIDAL THREATS</t>
+  </si>
+  <si>
+    <t>ANIMAL CONCERN</t>
+  </si>
+  <si>
+    <t>PUBLIC CONSUMPTION</t>
   </si>
   <si>
     <t>GUNSHOTS HEARD</t>
   </si>
   <si>
-    <t>SELL CRACK COCAINE</t>
-  </si>
-  <si>
-    <t>1ST DEGREE TRESPASS</t>
+    <t>UNDERAGE POSSESSION</t>
+  </si>
+  <si>
+    <t>GOOD NEIGHBOR/NATIONAL NIGHT OUT</t>
+  </si>
+  <si>
+    <t>CIVIL DISPUTE OVER MONEY</t>
+  </si>
+  <si>
+    <t>WEAPON ON SCHOOL PROPERTY</t>
+  </si>
+  <si>
+    <t>SELL AND DELIVER SCH I</t>
+  </si>
+  <si>
+    <t>PURSE SNATCHING</t>
+  </si>
+  <si>
+    <t>PHYSICAL SIMPLE ASSAULT</t>
+  </si>
+  <si>
+    <t>AGGRAVATED ASSAULT WITH SEXUAL MOTIVES</t>
+  </si>
+  <si>
+    <t>LARCENY OF PACKAGES</t>
+  </si>
+  <si>
+    <t>LARCENY OF MEDICATIONS</t>
+  </si>
+  <si>
+    <t>LARCENY OF STREET SIGN</t>
+  </si>
+  <si>
+    <t>DRUG VIOLATION- OTHER</t>
+  </si>
+  <si>
+    <t>DIRECTED PATROL</t>
+  </si>
+  <si>
+    <t>EMERGENCY COMMITMENT-NON CRIMINAL DETAINMENT</t>
+  </si>
+  <si>
+    <t>LOST WALLET</t>
+  </si>
+  <si>
+    <t>ABANDONED VEHICLES</t>
+  </si>
+  <si>
+    <t>POSSESSION OF A FIREARM BY FELON</t>
+  </si>
+  <si>
+    <t>LARCENY OF WATER</t>
+  </si>
+  <si>
+    <t>ASSIST EMS (SUICIDE ATTEMPT)</t>
+  </si>
+  <si>
+    <t>LARCENY OF LAWN CHAIR</t>
+  </si>
+  <si>
+    <t>FAILURE TO APPEAR</t>
+  </si>
+  <si>
+    <t>DRUNK AND DISRUPTIVE</t>
+  </si>
+  <si>
+    <t>POSSESS FIREARM BY FELON</t>
+  </si>
+  <si>
+    <t>RUNAWAY</t>
+  </si>
+  <si>
+    <t>PROPERTY CHECK</t>
+  </si>
+  <si>
+    <t>STALKING</t>
+  </si>
+  <si>
+    <t>B&amp;E LARCENY FROM VEHICLE</t>
+  </si>
+  <si>
+    <t>TRAFFIC COMPLAINT-RESIDENTIAL PARKING</t>
+  </si>
+  <si>
+    <t>ACCIDENTAL ALARM</t>
+  </si>
+  <si>
+    <t>FRAUD</t>
+  </si>
+  <si>
+    <t>LARCENY OF WATCH</t>
+  </si>
+  <si>
+    <t>FRAUDULENT FACEBOOK ACCOUNT</t>
+  </si>
+  <si>
+    <t>ANIMAL CALL</t>
+  </si>
+  <si>
+    <t>DISPUTE</t>
+  </si>
+  <si>
+    <t>SPEEDING</t>
+  </si>
+  <si>
+    <t>REPORT OF GUNSHOTS</t>
+  </si>
+  <si>
+    <t>LARCENY- MEDICATION</t>
+  </si>
+  <si>
+    <t>POLICE ADVICE</t>
+  </si>
+  <si>
+    <t>GUN SHOTS HEARD</t>
+  </si>
+  <si>
+    <t>REFUSAL TO LEAVE</t>
+  </si>
+  <si>
+    <t>HIT &amp; RUN</t>
+  </si>
+  <si>
+    <t>FICTITIOUS TAG</t>
+  </si>
+  <si>
+    <t>INFORMATION-JUVENILE ASSIST</t>
+  </si>
+  <si>
+    <t>STRONG ARM ROBBERY</t>
+  </si>
+  <si>
+    <t>PROTECTIVE ORDER VIOLATION</t>
+  </si>
+  <si>
+    <t>POSSESSION OF MARIJUANA</t>
+  </si>
+  <si>
+    <t>REC/POSS STOLE MV</t>
+  </si>
+  <si>
+    <t>IMPROPERLY PARKED VEHICLES</t>
+  </si>
+  <si>
+    <t>RECKLESS DRIVING</t>
+  </si>
+  <si>
+    <t>POSSIBLE DRUG USE</t>
+  </si>
+  <si>
+    <t>CIVIL DISPUTE</t>
+  </si>
+  <si>
+    <t>LARCENY OF A LAWN MOWER</t>
+  </si>
+  <si>
+    <t>IPVS</t>
+  </si>
+  <si>
+    <t>ILLEGALLY PARKED VEHICLE</t>
+  </si>
+  <si>
+    <t>POSSIBLE STOLEN BICYCLE</t>
+  </si>
+  <si>
+    <t>EQUIPMENT/PARAPHERNALIA-MANUFACTURING</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS NOISE</t>
+  </si>
+  <si>
+    <t>K-9 DEMONSTRATION</t>
+  </si>
+  <si>
+    <t>INFORMATION LANDLORD DISPUTE</t>
+  </si>
+  <si>
+    <t>POSS OF STOLEN GOODS</t>
+  </si>
+  <si>
+    <t>PHONE SCAM</t>
+  </si>
+  <si>
+    <t>HIT AND RUN</t>
+  </si>
+  <si>
+    <t>POSSESS STOLEN PROPERTY</t>
+  </si>
+  <si>
+    <t>DOG BITES AND ATTACKS</t>
+  </si>
+  <si>
+    <t>NARCOTIC INVESTIGATION</t>
+  </si>
+  <si>
+    <t>ANIMAL ABUSE</t>
+  </si>
+  <si>
+    <t>DRIVING WHILE LICENSE REVOKED</t>
+  </si>
+  <si>
+    <t>CARDIAC ARREST</t>
+  </si>
+  <si>
+    <t>SUSPICIOUS BEHAVIOR</t>
+  </si>
+  <si>
+    <t>POSSESSION OF COCAINE</t>
+  </si>
+  <si>
+    <t>GUNSHOTS</t>
+  </si>
+  <si>
+    <t>ASSIST BAIL BONDSMAN</t>
+  </si>
+  <si>
+    <t>BARKING DOG</t>
+  </si>
+  <si>
+    <t>LARCENY OF CELLPHONE</t>
+  </si>
+  <si>
+    <t>OBTAINING PROPERTY FALSE PRETENSE</t>
+  </si>
+  <si>
+    <t>LARCENY FROM PERSON</t>
+  </si>
+  <si>
+    <t>LARCENY OF MAIL</t>
+  </si>
+  <si>
+    <t>LARCENY OF A BICYCLE</t>
+  </si>
+  <si>
+    <t>FOUND PURSE</t>
+  </si>
+  <si>
+    <t>TOWING SCAM</t>
+  </si>
+  <si>
+    <t>VICIOUS DOG/LEASH LAW VIOLATION</t>
+  </si>
+  <si>
+    <t>ASSIST ORANGE COUNTY</t>
+  </si>
+  <si>
+    <t>NOL</t>
+  </si>
+  <si>
+    <t>DOMESTIC DISTURBANCE- POSSIBLE ASSAULT</t>
+  </si>
+  <si>
+    <t>B&amp;E VEHICLE(ATT LARCENY)</t>
+  </si>
+  <si>
+    <t>K9 DEMO</t>
+  </si>
+  <si>
+    <t>LARCENY- CELL PHONE</t>
+  </si>
+  <si>
+    <t>VEHICLE SEARCH</t>
+  </si>
+  <si>
+    <t>LARCENY OF DOG</t>
+  </si>
+  <si>
+    <t>FIREWORKS / GUNSHOTS</t>
+  </si>
+  <si>
+    <t>ASSIST PROBATION</t>
+  </si>
+  <si>
+    <t>DUSTURBANCE</t>
   </si>
   <si>
     <t>ASSAULT ON LEO</t>
   </si>
   <si>
-    <t>ABANDONED PROPERTY</t>
-  </si>
-  <si>
-    <t>PHONE SCAM</t>
-  </si>
-  <si>
-    <t>FIREWORKS / GUNSHOTS</t>
-  </si>
-  <si>
-    <t>ANIMAL DISPATCH</t>
-  </si>
-  <si>
-    <t>ARGUMENT OVER CHILD CARE</t>
-  </si>
-  <si>
-    <t>LARCENY OF MOTOR VEHICLE</t>
-  </si>
-  <si>
-    <t>ASSIST OC EMS</t>
-  </si>
-  <si>
-    <t>POSSESSION OF A FIREARM BY FELON</t>
-  </si>
-  <si>
-    <t>LARCENY OF A BICYCLE</t>
-  </si>
-  <si>
-    <t>ABANDONED HOUSE/PROERTY</t>
-  </si>
-  <si>
-    <t>LARCENY OF STREET SIGN</t>
-  </si>
-  <si>
-    <t>AGGRAVATED ASSAULT WITH SEXUAL MOTIVES</t>
-  </si>
-  <si>
-    <t>ABANDONED VEHICLES</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS NOISE</t>
-  </si>
-  <si>
-    <t>UNLAWFULLY OBTAINING CREDIT CARD</t>
-  </si>
-  <si>
-    <t>LARCENY OF MEDICATIONS</t>
+    <t>LARCENY- OF BICYCLE</t>
+  </si>
+  <si>
+    <t>NDL - OPERATOR OR CHAUFFER</t>
   </si>
   <si>
     <t>CHECK WELL-BEING</t>
   </si>
   <si>
-    <t>CIVIL DISPUTE</t>
-  </si>
-  <si>
-    <t>FICTITIOUS TAG</t>
-  </si>
-  <si>
-    <t>PHYSICAL SIMPLE ASSAULT</t>
-  </si>
-  <si>
-    <t>DRUG VIOLATION- OTHER</t>
-  </si>
-  <si>
-    <t>DRUNK AND DISRUPTIVE</t>
-  </si>
-  <si>
-    <t>PROTECTIVE ORDER VIOLATION</t>
-  </si>
-  <si>
-    <t>FELONY POSSESSION OF COCAINE</t>
-  </si>
-  <si>
-    <t>DOG BARKING COMPLAINT</t>
-  </si>
-  <si>
-    <t>DOMESTIC ASSIST</t>
-  </si>
-  <si>
-    <t>DISCHARGING FIREARM</t>
-  </si>
-  <si>
-    <t>RESIST, DELAY AND OBSTRUCT</t>
-  </si>
-  <si>
-    <t>RUNAWAY</t>
-  </si>
-  <si>
-    <t>BARKING DOG</t>
-  </si>
-  <si>
-    <t>POSS OF STOLEN GOODS</t>
-  </si>
-  <si>
     <t>GRAFFITI VANDALISM</t>
   </si>
   <si>
-    <t>DISCHARGING PYROTECHNICS - USE/FIREWORKS</t>
-  </si>
-  <si>
-    <t>FOUND PURSE</t>
-  </si>
-  <si>
-    <t>B&amp;E LARCENY FROM VEHICLE</t>
-  </si>
-  <si>
-    <t>ASSISTANCE</t>
-  </si>
-  <si>
-    <t>NARCOTIC INVESTIGATION</t>
-  </si>
-  <si>
-    <t>ANIMAL ABUSE</t>
-  </si>
-  <si>
-    <t>FRAUDULENT FACEBOOK ACCOUNT</t>
-  </si>
-  <si>
-    <t>B&amp;E BUSINESS-FORCE</t>
-  </si>
-  <si>
-    <t>HIT &amp; RUN</t>
-  </si>
-  <si>
-    <t>LITTERING</t>
-  </si>
-  <si>
-    <t>ASSIST EMS (SUICIDE ATTEMPT)</t>
-  </si>
-  <si>
-    <t>AGGRAVATED ASSAULT</t>
-  </si>
-  <si>
-    <t>DOG CALL</t>
-  </si>
-  <si>
-    <t>PUBLIC CONSUMPTION</t>
-  </si>
-  <si>
-    <t>INTOXICATED AND DISRUPTIVE</t>
-  </si>
-  <si>
-    <t>ASSIST PROBATION</t>
-  </si>
-  <si>
-    <t>ASSIST CHATHAM COUNTY</t>
-  </si>
-  <si>
-    <t>GUNSHOTS</t>
-  </si>
-  <si>
-    <t>GUN SHOTS HEARD</t>
-  </si>
-  <si>
-    <t>STATUTORY RAPE</t>
+    <t>CHILD ABUSE/ASSAULT-N INJURY</t>
+  </si>
+  <si>
+    <t>LARCENY OF SCOOTER</t>
   </si>
   <si>
     <t>COMMUNICATING UNWANTED ADVANCES</t>
-  </si>
-  <si>
-    <t>REC/POSS STOLE MV</t>
-  </si>
-  <si>
-    <t>B&amp;E VEHICLE(ATT LARCENY)</t>
-  </si>
-  <si>
-    <t>POSSESS FIREARM BY FELON</t>
-  </si>
-  <si>
-    <t>PUBLIC INEBRIATE</t>
-  </si>
-  <si>
-    <t>OUTSTANDING WARRANT</t>
-  </si>
-  <si>
-    <t>CRASH INVESTIGATION</t>
-  </si>
-  <si>
-    <t>POSSESSION OF MARIJUANA</t>
-  </si>
-  <si>
-    <t>CARDIAC ARREST</t>
-  </si>
-  <si>
-    <t>VICIOUS DOG/LEASH LAW VIOLATION</t>
-  </si>
-  <si>
-    <t>FOUND I PHONE</t>
-  </si>
-  <si>
-    <t>DIRECTED PATROL</t>
-  </si>
-  <si>
-    <t>TOWING SCAM</t>
-  </si>
-  <si>
-    <t>SUICIDAL THREATS</t>
-  </si>
-  <si>
-    <t>CHILD ABUSE/ASSAULT-NO INJURY</t>
-  </si>
-  <si>
-    <t>WELL BEING CHECK</t>
-  </si>
-  <si>
-    <t>NARCOTIC IVIOLATION</t>
-  </si>
-  <si>
-    <t>VEHICLE FIRE</t>
-  </si>
-  <si>
-    <t>DUSTURBANCE</t>
-  </si>
-  <si>
-    <t>NOL</t>
-  </si>
-  <si>
-    <t>RESIST/DELAY/OBSTRUCT</t>
-  </si>
-  <si>
-    <t>LARCENY FROM PERSON</t>
-  </si>
-  <si>
-    <t>WEAPON ON SCHOOL PROPERTY</t>
-  </si>
-  <si>
-    <t>UNFOUNDED LOUD NOISE</t>
-  </si>
-  <si>
-    <t>FRAUD</t>
-  </si>
-  <si>
-    <t>ASSAULT INFLICTING SERIOUS INJURY</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS BEHAVIOR</t>
-  </si>
-  <si>
-    <t>UNLOCK VEHICLE</t>
-  </si>
-  <si>
-    <t>LARCENY- OF BICYCLE</t>
-  </si>
-  <si>
-    <t>POSSESSING STOLEN VEHICLE</t>
-  </si>
-  <si>
-    <t>SUSPICIOUS INCIDENT</t>
-  </si>
-  <si>
-    <t>SEXUAL HARASSMENT</t>
-  </si>
-  <si>
-    <t>INFORMATION LANDLORD DISPUTE</t>
-  </si>
-  <si>
-    <t>PARAPHERNALIA- POSSESSING/CONCEALING EQUIPMENT</t>
-  </si>
-  <si>
-    <t>SUICIDE ATTEMPT</t>
-  </si>
-  <si>
-    <t>ASSIST CPS</t>
-  </si>
-  <si>
-    <t>HIT AND RUN</t>
-  </si>
-  <si>
-    <t>CHILD ABUSE/ASSAULT-N INJURY</t>
-  </si>
-  <si>
-    <t>2ND DEGREE TRESPASSING</t>
-  </si>
-  <si>
-    <t>EQUIPMENT/PARAPHERNALIA-MANUFACTURING</t>
-  </si>
-  <si>
-    <t>UNDERAGE POSSESSION</t>
-  </si>
-  <si>
-    <t>50B VIOLATION</t>
-  </si>
-  <si>
-    <t>DRIVING WHILE LICENSE REVOKED</t>
-  </si>
-  <si>
-    <t>DOG BITES AND ATTACKS</t>
-  </si>
-  <si>
-    <t>STALKING</t>
-  </si>
-  <si>
-    <t>HOMICIDAL THREATS</t>
-  </si>
-  <si>
-    <t>REPORT OF GUNSHOTS</t>
-  </si>
-  <si>
-    <t>LARCENY OF DOG</t>
-  </si>
-  <si>
-    <t>K-9 DEMONSTRATION</t>
-  </si>
-  <si>
-    <t>K-9 DEMO/ COMMUNITY TALK</t>
-  </si>
-  <si>
-    <t>AWDWIKISI</t>
-  </si>
-  <si>
-    <t>LARCENY- MEDICATION</t>
-  </si>
-  <si>
-    <t>TRAFFIC COMPLAINT-RESIDENTIAL PARKING</t>
-  </si>
-  <si>
-    <t>PURSE SNATCHING</t>
-  </si>
-  <si>
-    <t>PUBLIC ASSISTANCE</t>
-  </si>
-  <si>
-    <t>LOST WALLET</t>
-  </si>
-  <si>
-    <t>SPEEDING</t>
-  </si>
-  <si>
-    <t>POSSESSING STOLEN FIREARM</t>
-  </si>
-  <si>
-    <t>CHILD ABUSE-NON ASSAULTIVE</t>
-  </si>
-  <si>
-    <t>MURDER &amp; NONNEGLIENT MANSLAUGHTER</t>
-  </si>
-  <si>
-    <t>INFORMATION-JUVENILE ASSIST</t>
-  </si>
-  <si>
-    <t>POLICE ADVICE</t>
-  </si>
-  <si>
-    <t>VANDALISM/DAMAGE TO PROPERTY</t>
-  </si>
-  <si>
-    <t>DOMESTIC DISTURBANCE- POSSIBLE ASSAULT</t>
-  </si>
-  <si>
-    <t>PARKING DISPUTE</t>
-  </si>
-  <si>
-    <t>ACCIDENTAL ALARM</t>
-  </si>
-  <si>
-    <t>POSSIBLE DRUG ACTIVITY</t>
-  </si>
-  <si>
-    <t>TRAFFIC STOP</t>
-  </si>
-  <si>
-    <t>EMERGENCY COMMITMENT-NON CRIMINAL DETAINMENT</t>
-  </si>
-  <si>
-    <t>POSSIBLE STOLEN BICYCLE</t>
-  </si>
-  <si>
-    <t>OPEN CONTAINER VIOLATION</t>
-  </si>
-  <si>
-    <t>STRONG ARM ROBBERY</t>
-  </si>
-  <si>
-    <t>NDL - OPERATOR OR CHAUFFER</t>
-  </si>
-  <si>
-    <t>IMPROPERLY PARKED VEHICLES</t>
-  </si>
-  <si>
-    <t>NOISY FOWL</t>
-  </si>
-  <si>
-    <t>K9 DEMO</t>
-  </si>
-  <si>
-    <t>SELL COCAINE</t>
-  </si>
-  <si>
-    <t>ASSIST ORANGE COUNTY</t>
-  </si>
-  <si>
-    <t>POSSESS STOLEN PROPERTY</t>
-  </si>
-  <si>
-    <t>MISUSE OF PUBLIC SEATING</t>
-  </si>
-  <si>
-    <t>LARCENY OF CELLPHONE</t>
-  </si>
-  <si>
-    <t>VEHICLE DAMAGE</t>
-  </si>
-  <si>
-    <t>NUISANCE COMPLAINT</t>
-  </si>
-  <si>
-    <t>FORGERY- USING/UTTERING</t>
-  </si>
-  <si>
-    <t>ANIMAL CALL</t>
-  </si>
-  <si>
-    <t>LARCENY OF A LICENSE PLATE</t>
-  </si>
-  <si>
-    <t>VEHICLE SEARCH</t>
-  </si>
-  <si>
-    <t>GOOD NEIGHBOR/NATIONAL NIGHT OUT</t>
-  </si>
-  <si>
-    <t>LARCENY OF WATER</t>
-  </si>
-  <si>
-    <t>LARCENY OF WATCH</t>
-  </si>
-  <si>
-    <t>UNAUTHORIZED USE OF BICYCLE</t>
-  </si>
-  <si>
-    <t>REFUSAL TO LEAVE</t>
-  </si>
-  <si>
-    <t>B&amp;E VEH (NO PROPERTY TAKEN)</t>
-  </si>
-  <si>
-    <t>LARCENY OF PACKAGES</t>
-  </si>
-  <si>
-    <t>LARCENY OF MOTORCYCLE</t>
-  </si>
-  <si>
-    <t>LARCENY OF MAIL</t>
-  </si>
-  <si>
-    <t>LARCENY OF LAWN CHAIR</t>
-  </si>
-  <si>
-    <t>LARCENY OF FIREARM</t>
-  </si>
-  <si>
-    <t>RECKLESS DRIVING</t>
-  </si>
-  <si>
-    <t>INFORMATION(DUPLICATE REPORT)</t>
-  </si>
-  <si>
-    <t>POSS STOLEN PROPERTY</t>
-  </si>
-  <si>
-    <t>ASSIST BAIL BONDSMAN</t>
-  </si>
-  <si>
-    <t>ILLEGALLY PARKED VEHICLE</t>
-  </si>
-  <si>
-    <t>IPVS</t>
-  </si>
-  <si>
-    <t>POSSESSION OF COCAINE</t>
-  </si>
-  <si>
-    <t>POSSIBLE DRUG USE</t>
-  </si>
-  <si>
-    <t>ANIMAL CONCERN</t>
-  </si>
-  <si>
-    <t>VERBAL DOMESTIC</t>
-  </si>
-  <si>
-    <t>LARCENY OF PATIO CUSHIONS</t>
-  </si>
-  <si>
-    <t>FAILURE TO APPEAR</t>
-  </si>
-  <si>
-    <t>CIVIL DISPUTE OVER MONEY</t>
-  </si>
-  <si>
-    <t>SELL AND DELIVER SCH I</t>
-  </si>
-  <si>
-    <t>MENTAL DISORDER</t>
-  </si>
-  <si>
-    <t>ARSON</t>
-  </si>
-  <si>
-    <t>UNSAFE MOVEMENT</t>
-  </si>
-  <si>
-    <t>LARCENY OF SCOOTER</t>
-  </si>
-  <si>
-    <t>DISPUTE</t>
-  </si>
-  <si>
-    <t>LARCENY OF A LAWN MOWER</t>
-  </si>
-  <si>
-    <t>EMBEZZLEMENT- OTHER</t>
-  </si>
-  <si>
-    <t>LARCENY- CELL PHONE</t>
-  </si>
-  <si>
-    <t>PROPERTY CHECK</t>
-  </si>
-  <si>
-    <t>OBTAINING PROPERTY FALSE PRETENSE</t>
-  </si>
-  <si>
-    <t>POSSESSION OF DRUG PARAPHERNALIA</t>
-  </si>
-  <si>
-    <t>ATTEMPTED B&amp;E RESIDENCE-FORCE</t>
   </si>
   <si>
     <t>n</t>
@@ -978,7 +978,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -986,12 +986,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,7 +1018,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2" s="1">
         <v>97</v>
       </c>
     </row>
@@ -1024,7 +1026,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3" s="1">
         <v>82</v>
       </c>
     </row>
@@ -1032,7 +1034,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4" s="1">
         <v>78</v>
       </c>
     </row>
@@ -1040,7 +1042,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5" s="1">
         <v>70</v>
       </c>
     </row>
@@ -1048,7 +1050,7 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6" s="1">
         <v>68</v>
       </c>
     </row>
@@ -1056,7 +1058,7 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7" s="1">
         <v>61</v>
       </c>
     </row>
@@ -1064,7 +1066,7 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8" s="1">
         <v>60</v>
       </c>
     </row>
@@ -1072,7 +1074,7 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9" s="1">
         <v>56</v>
       </c>
     </row>
@@ -1080,7 +1082,7 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10" s="1">
         <v>47</v>
       </c>
     </row>
@@ -1088,7 +1090,7 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11" s="1">
         <v>45</v>
       </c>
     </row>
@@ -1096,7 +1098,7 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12" s="1">
         <v>31</v>
       </c>
     </row>
@@ -1104,7 +1106,7 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13" s="1">
         <v>27</v>
       </c>
     </row>
@@ -1112,7 +1114,7 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14" s="1">
         <v>24</v>
       </c>
     </row>
@@ -1120,7 +1122,7 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15" s="1">
         <v>23</v>
       </c>
     </row>
@@ -1128,7 +1130,7 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16" s="1">
         <v>23</v>
       </c>
     </row>
@@ -1136,7 +1138,7 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17" s="1">
         <v>20</v>
       </c>
     </row>
@@ -1144,7 +1146,7 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18" s="1">
         <v>19</v>
       </c>
     </row>
@@ -1152,7 +1154,7 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19" s="1">
         <v>18</v>
       </c>
     </row>
@@ -1160,7 +1162,7 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20" s="1">
         <v>18</v>
       </c>
     </row>
@@ -1168,7 +1170,7 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21" s="1">
         <v>18</v>
       </c>
     </row>
@@ -1176,7 +1178,7 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22" s="1">
         <v>18</v>
       </c>
     </row>
@@ -1184,7 +1186,7 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23" s="1">
         <v>17</v>
       </c>
     </row>
@@ -1192,7 +1194,7 @@
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24" s="1">
         <v>17</v>
       </c>
     </row>
@@ -1200,7 +1202,7 @@
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25" s="1">
         <v>17</v>
       </c>
     </row>
@@ -1208,7 +1210,7 @@
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26" s="1">
         <v>16</v>
       </c>
     </row>
@@ -1216,7 +1218,7 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27" s="1">
         <v>16</v>
       </c>
     </row>
@@ -1224,7 +1226,7 @@
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28" s="1">
         <v>16</v>
       </c>
     </row>
@@ -1232,7 +1234,7 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29" s="1">
         <v>16</v>
       </c>
     </row>
@@ -1240,7 +1242,7 @@
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30" s="1">
         <v>15</v>
       </c>
     </row>
@@ -1248,7 +1250,7 @@
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31" s="1">
         <v>14</v>
       </c>
     </row>
@@ -1256,7 +1258,7 @@
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="0">
+      <c r="B32" s="1">
         <v>13</v>
       </c>
     </row>
@@ -1264,7 +1266,7 @@
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="0">
+      <c r="B33" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1272,7 +1274,7 @@
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1280,7 +1282,7 @@
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1288,7 +1290,7 @@
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1296,7 +1298,7 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1304,7 +1306,7 @@
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1312,7 +1314,7 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39" s="1">
         <v>12</v>
       </c>
     </row>
@@ -1320,7 +1322,7 @@
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40" s="1">
         <v>11</v>
       </c>
     </row>
@@ -1328,7 +1330,7 @@
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41" s="1">
         <v>11</v>
       </c>
     </row>
@@ -1336,7 +1338,7 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1344,7 +1346,7 @@
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1352,7 +1354,7 @@
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1360,7 +1362,7 @@
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1368,7 +1370,7 @@
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1376,7 +1378,7 @@
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1384,7 +1386,7 @@
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1392,7 +1394,7 @@
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1400,7 +1402,7 @@
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1408,7 +1410,7 @@
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1416,7 +1418,7 @@
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52" s="1">
         <v>7</v>
       </c>
     </row>
@@ -1424,7 +1426,7 @@
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1432,7 +1434,7 @@
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1440,7 +1442,7 @@
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1448,7 +1450,7 @@
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1456,7 +1458,7 @@
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1464,7 +1466,7 @@
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1472,7 +1474,7 @@
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1480,7 +1482,7 @@
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1488,7 +1490,7 @@
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1496,7 +1498,7 @@
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1504,7 +1506,7 @@
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1512,7 +1514,7 @@
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="0">
+      <c r="B64" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1520,7 +1522,7 @@
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="0">
+      <c r="B65" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1528,7 +1530,7 @@
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="0">
+      <c r="B66" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1536,7 +1538,7 @@
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="0">
+      <c r="B67" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1544,7 +1546,7 @@
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="0">
+      <c r="B68" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1552,7 +1554,7 @@
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="0">
+      <c r="B69" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1560,7 +1562,7 @@
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="0">
+      <c r="B70" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1568,7 +1570,7 @@
       <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="0">
+      <c r="B71" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1576,7 +1578,7 @@
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="0">
+      <c r="B72" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1584,7 +1586,7 @@
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="0">
+      <c r="B73" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1592,7 +1594,7 @@
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="0">
+      <c r="B74" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1600,7 +1602,7 @@
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="0">
+      <c r="B75" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1608,7 +1610,7 @@
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="0">
+      <c r="B76" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1616,7 +1618,7 @@
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="0">
+      <c r="B77" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1624,7 +1626,7 @@
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="0">
+      <c r="B78" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1632,7 +1634,7 @@
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="0">
+      <c r="B79" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1640,7 +1642,7 @@
       <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="0">
+      <c r="B80" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1648,7 +1650,7 @@
       <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="0">
+      <c r="B81" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1656,7 +1658,7 @@
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="0">
+      <c r="B82" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1664,7 +1666,7 @@
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="0">
+      <c r="B83" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1672,7 +1674,7 @@
       <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="0">
+      <c r="B84" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1680,7 +1682,7 @@
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="0">
+      <c r="B85" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1688,7 +1690,7 @@
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="0">
+      <c r="B86" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1696,7 +1698,7 @@
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="0">
+      <c r="B87" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1704,7 +1706,7 @@
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="0">
+      <c r="B88" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1712,7 +1714,7 @@
       <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="0">
+      <c r="B89" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1720,7 +1722,7 @@
       <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="0">
+      <c r="B90" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1728,7 +1730,7 @@
       <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="0">
+      <c r="B91" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1736,7 +1738,7 @@
       <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="0">
+      <c r="B92" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1744,7 +1746,7 @@
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="0">
+      <c r="B93" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1752,7 +1754,7 @@
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="0">
+      <c r="B94" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1760,7 +1762,7 @@
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="0">
+      <c r="B95" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1768,7 +1770,7 @@
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="0">
+      <c r="B96" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1776,7 +1778,7 @@
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="0">
+      <c r="B97" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1784,7 +1786,7 @@
       <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="0">
+      <c r="B98" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1792,7 +1794,7 @@
       <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="0">
+      <c r="B99" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1800,7 +1802,7 @@
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="0">
+      <c r="B100" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1808,7 +1810,7 @@
       <c r="A101" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="0">
+      <c r="B101" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1816,7 +1818,7 @@
       <c r="A102" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="0">
+      <c r="B102" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1824,7 +1826,7 @@
       <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="0">
+      <c r="B103" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1832,7 +1834,7 @@
       <c r="A104" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="0">
+      <c r="B104" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1840,7 +1842,7 @@
       <c r="A105" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="0">
+      <c r="B105" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1848,7 +1850,7 @@
       <c r="A106" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="0">
+      <c r="B106" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1856,7 +1858,7 @@
       <c r="A107" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="0">
+      <c r="B107" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1864,7 +1866,7 @@
       <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="0">
+      <c r="B108" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1872,7 +1874,7 @@
       <c r="A109" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="0">
+      <c r="B109" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1880,7 +1882,7 @@
       <c r="A110" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="0">
+      <c r="B110" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1888,7 +1890,7 @@
       <c r="A111" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="0">
+      <c r="B111" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1896,7 +1898,7 @@
       <c r="A112" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="0">
+      <c r="B112" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1904,7 +1906,7 @@
       <c r="A113" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="0">
+      <c r="B113" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1912,7 +1914,7 @@
       <c r="A114" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="0">
+      <c r="B114" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1920,7 +1922,7 @@
       <c r="A115" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="0">
+      <c r="B115" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1928,7 +1930,7 @@
       <c r="A116" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="0">
+      <c r="B116" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1936,7 +1938,7 @@
       <c r="A117" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="0">
+      <c r="B117" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1944,7 +1946,7 @@
       <c r="A118" t="s">
         <v>117</v>
       </c>
-      <c r="B118" s="0">
+      <c r="B118" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1952,7 +1954,7 @@
       <c r="A119" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="0">
+      <c r="B119" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1960,7 +1962,7 @@
       <c r="A120" t="s">
         <v>119</v>
       </c>
-      <c r="B120" s="0">
+      <c r="B120" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1968,7 +1970,7 @@
       <c r="A121" t="s">
         <v>120</v>
       </c>
-      <c r="B121" s="0">
+      <c r="B121" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1976,7 +1978,7 @@
       <c r="A122" t="s">
         <v>121</v>
       </c>
-      <c r="B122" s="0">
+      <c r="B122" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1984,7 +1986,7 @@
       <c r="A123" t="s">
         <v>122</v>
       </c>
-      <c r="B123" s="0">
+      <c r="B123" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1992,7 +1994,7 @@
       <c r="A124" t="s">
         <v>123</v>
       </c>
-      <c r="B124" s="0">
+      <c r="B124" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2000,7 +2002,7 @@
       <c r="A125" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="0">
+      <c r="B125" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2008,7 +2010,7 @@
       <c r="A126" t="s">
         <v>125</v>
       </c>
-      <c r="B126" s="0">
+      <c r="B126" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2016,7 +2018,7 @@
       <c r="A127" t="s">
         <v>126</v>
       </c>
-      <c r="B127" s="0">
+      <c r="B127" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2024,7 +2026,7 @@
       <c r="A128" t="s">
         <v>127</v>
       </c>
-      <c r="B128" s="0">
+      <c r="B128" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2032,7 +2034,7 @@
       <c r="A129" t="s">
         <v>128</v>
       </c>
-      <c r="B129" s="0">
+      <c r="B129" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2040,7 +2042,7 @@
       <c r="A130" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="0">
+      <c r="B130" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2048,7 +2050,7 @@
       <c r="A131" t="s">
         <v>130</v>
       </c>
-      <c r="B131" s="0">
+      <c r="B131" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2056,7 +2058,7 @@
       <c r="A132" t="s">
         <v>131</v>
       </c>
-      <c r="B132" s="0">
+      <c r="B132" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2064,7 +2066,7 @@
       <c r="A133" t="s">
         <v>132</v>
       </c>
-      <c r="B133" s="0">
+      <c r="B133" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2072,7 +2074,7 @@
       <c r="A134" t="s">
         <v>133</v>
       </c>
-      <c r="B134" s="0">
+      <c r="B134" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2080,7 +2082,7 @@
       <c r="A135" t="s">
         <v>134</v>
       </c>
-      <c r="B135" s="0">
+      <c r="B135" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2088,7 +2090,7 @@
       <c r="A136" t="s">
         <v>135</v>
       </c>
-      <c r="B136" s="0">
+      <c r="B136" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2096,7 +2098,7 @@
       <c r="A137" t="s">
         <v>136</v>
       </c>
-      <c r="B137" s="0">
+      <c r="B137" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2104,7 +2106,7 @@
       <c r="A138" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="0">
+      <c r="B138" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2112,7 +2114,7 @@
       <c r="A139" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="0">
+      <c r="B139" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2120,7 +2122,7 @@
       <c r="A140" t="s">
         <v>139</v>
       </c>
-      <c r="B140" s="0">
+      <c r="B140" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2128,7 +2130,7 @@
       <c r="A141" t="s">
         <v>140</v>
       </c>
-      <c r="B141" s="0">
+      <c r="B141" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2136,7 +2138,7 @@
       <c r="A142" t="s">
         <v>141</v>
       </c>
-      <c r="B142" s="0">
+      <c r="B142" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2144,7 +2146,7 @@
       <c r="A143" t="s">
         <v>142</v>
       </c>
-      <c r="B143" s="0">
+      <c r="B143" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2152,7 +2154,7 @@
       <c r="A144" t="s">
         <v>143</v>
       </c>
-      <c r="B144" s="0">
+      <c r="B144" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2160,7 +2162,7 @@
       <c r="A145" t="s">
         <v>144</v>
       </c>
-      <c r="B145" s="0">
+      <c r="B145" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2168,7 +2170,7 @@
       <c r="A146" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="0">
+      <c r="B146" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2176,7 +2178,7 @@
       <c r="A147" t="s">
         <v>146</v>
       </c>
-      <c r="B147" s="0">
+      <c r="B147" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2184,7 +2186,7 @@
       <c r="A148" t="s">
         <v>147</v>
       </c>
-      <c r="B148" s="0">
+      <c r="B148" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2192,7 +2194,7 @@
       <c r="A149" t="s">
         <v>148</v>
       </c>
-      <c r="B149" s="0">
+      <c r="B149" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2200,7 +2202,7 @@
       <c r="A150" t="s">
         <v>149</v>
       </c>
-      <c r="B150" s="0">
+      <c r="B150" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2208,7 +2210,7 @@
       <c r="A151" t="s">
         <v>150</v>
       </c>
-      <c r="B151" s="0">
+      <c r="B151" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2216,7 +2218,7 @@
       <c r="A152" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="0">
+      <c r="B152" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2224,7 +2226,7 @@
       <c r="A153" t="s">
         <v>152</v>
       </c>
-      <c r="B153" s="0">
+      <c r="B153" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2232,7 +2234,7 @@
       <c r="A154" t="s">
         <v>153</v>
       </c>
-      <c r="B154" s="0">
+      <c r="B154" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2240,7 +2242,7 @@
       <c r="A155" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="0">
+      <c r="B155" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2248,7 +2250,7 @@
       <c r="A156" t="s">
         <v>155</v>
       </c>
-      <c r="B156" s="0">
+      <c r="B156" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2256,7 +2258,7 @@
       <c r="A157" t="s">
         <v>156</v>
       </c>
-      <c r="B157" s="0">
+      <c r="B157" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2264,7 +2266,7 @@
       <c r="A158" t="s">
         <v>157</v>
       </c>
-      <c r="B158" s="0">
+      <c r="B158" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2272,7 +2274,7 @@
       <c r="A159" t="s">
         <v>158</v>
       </c>
-      <c r="B159" s="0">
+      <c r="B159" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2280,7 +2282,7 @@
       <c r="A160" t="s">
         <v>159</v>
       </c>
-      <c r="B160" s="0">
+      <c r="B160" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2288,7 +2290,7 @@
       <c r="A161" t="s">
         <v>160</v>
       </c>
-      <c r="B161" s="0">
+      <c r="B161" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2296,7 +2298,7 @@
       <c r="A162" t="s">
         <v>161</v>
       </c>
-      <c r="B162" s="0">
+      <c r="B162" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2304,7 +2306,7 @@
       <c r="A163" t="s">
         <v>162</v>
       </c>
-      <c r="B163" s="0">
+      <c r="B163" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2312,7 +2314,7 @@
       <c r="A164" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="0">
+      <c r="B164" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2320,7 +2322,7 @@
       <c r="A165" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="0">
+      <c r="B165" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2328,7 +2330,7 @@
       <c r="A166" t="s">
         <v>165</v>
       </c>
-      <c r="B166" s="0">
+      <c r="B166" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2336,7 +2338,7 @@
       <c r="A167" t="s">
         <v>166</v>
       </c>
-      <c r="B167" s="0">
+      <c r="B167" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2344,7 +2346,7 @@
       <c r="A168" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="0">
+      <c r="B168" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2352,7 +2354,7 @@
       <c r="A169" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="0">
+      <c r="B169" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2360,7 +2362,7 @@
       <c r="A170" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="0">
+      <c r="B170" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2368,7 +2370,7 @@
       <c r="A171" t="s">
         <v>170</v>
       </c>
-      <c r="B171" s="0">
+      <c r="B171" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2376,7 +2378,7 @@
       <c r="A172" t="s">
         <v>171</v>
       </c>
-      <c r="B172" s="0">
+      <c r="B172" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2384,7 +2386,7 @@
       <c r="A173" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="0">
+      <c r="B173" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2392,7 +2394,7 @@
       <c r="A174" t="s">
         <v>173</v>
       </c>
-      <c r="B174" s="0">
+      <c r="B174" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2400,7 +2402,7 @@
       <c r="A175" t="s">
         <v>174</v>
       </c>
-      <c r="B175" s="0">
+      <c r="B175" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2408,7 +2410,7 @@
       <c r="A176" t="s">
         <v>175</v>
       </c>
-      <c r="B176" s="0">
+      <c r="B176" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2416,7 +2418,7 @@
       <c r="A177" t="s">
         <v>176</v>
       </c>
-      <c r="B177" s="0">
+      <c r="B177" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2424,7 +2426,7 @@
       <c r="A178" t="s">
         <v>177</v>
       </c>
-      <c r="B178" s="0">
+      <c r="B178" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2432,7 +2434,7 @@
       <c r="A179" t="s">
         <v>178</v>
       </c>
-      <c r="B179" s="0">
+      <c r="B179" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2440,7 +2442,7 @@
       <c r="A180" t="s">
         <v>179</v>
       </c>
-      <c r="B180" s="0">
+      <c r="B180" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2448,7 +2450,7 @@
       <c r="A181" t="s">
         <v>180</v>
       </c>
-      <c r="B181" s="0">
+      <c r="B181" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2456,7 +2458,7 @@
       <c r="A182" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="0">
+      <c r="B182" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2464,7 +2466,7 @@
       <c r="A183" t="s">
         <v>182</v>
       </c>
-      <c r="B183" s="0">
+      <c r="B183" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2472,7 +2474,7 @@
       <c r="A184" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="0">
+      <c r="B184" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2480,7 +2482,7 @@
       <c r="A185" t="s">
         <v>184</v>
       </c>
-      <c r="B185" s="0">
+      <c r="B185" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2488,7 +2490,7 @@
       <c r="A186" t="s">
         <v>185</v>
       </c>
-      <c r="B186" s="0">
+      <c r="B186" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2496,7 +2498,7 @@
       <c r="A187" t="s">
         <v>186</v>
       </c>
-      <c r="B187" s="0">
+      <c r="B187" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2504,7 +2506,7 @@
       <c r="A188" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="0">
+      <c r="B188" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2512,7 +2514,7 @@
       <c r="A189" t="s">
         <v>188</v>
       </c>
-      <c r="B189" s="0">
+      <c r="B189" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2520,7 +2522,7 @@
       <c r="A190" t="s">
         <v>189</v>
       </c>
-      <c r="B190" s="0">
+      <c r="B190" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2528,7 +2530,7 @@
       <c r="A191" t="s">
         <v>190</v>
       </c>
-      <c r="B191" s="0">
+      <c r="B191" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2536,7 +2538,7 @@
       <c r="A192" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="0">
+      <c r="B192" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2544,7 +2546,7 @@
       <c r="A193" t="s">
         <v>192</v>
       </c>
-      <c r="B193" s="0">
+      <c r="B193" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2552,7 +2554,7 @@
       <c r="A194" t="s">
         <v>193</v>
       </c>
-      <c r="B194" s="0">
+      <c r="B194" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2560,7 +2562,7 @@
       <c r="A195" t="s">
         <v>194</v>
       </c>
-      <c r="B195" s="0">
+      <c r="B195" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2568,7 +2570,7 @@
       <c r="A196" t="s">
         <v>195</v>
       </c>
-      <c r="B196" s="0">
+      <c r="B196" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2576,7 +2578,7 @@
       <c r="A197" t="s">
         <v>196</v>
       </c>
-      <c r="B197" s="0">
+      <c r="B197" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2584,7 +2586,7 @@
       <c r="A198" t="s">
         <v>197</v>
       </c>
-      <c r="B198" s="0">
+      <c r="B198" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2592,7 +2594,7 @@
       <c r="A199" t="s">
         <v>198</v>
       </c>
-      <c r="B199" s="0">
+      <c r="B199" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2600,7 +2602,7 @@
       <c r="A200" t="s">
         <v>199</v>
       </c>
-      <c r="B200" s="0">
+      <c r="B200" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2608,7 +2610,7 @@
       <c r="A201" t="s">
         <v>200</v>
       </c>
-      <c r="B201" s="0">
+      <c r="B201" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2616,7 +2618,7 @@
       <c r="A202" t="s">
         <v>201</v>
       </c>
-      <c r="B202" s="0">
+      <c r="B202" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2624,7 +2626,7 @@
       <c r="A203" t="s">
         <v>202</v>
       </c>
-      <c r="B203" s="0">
+      <c r="B203" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2632,7 +2634,7 @@
       <c r="A204" t="s">
         <v>203</v>
       </c>
-      <c r="B204" s="0">
+      <c r="B204" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2640,7 +2642,7 @@
       <c r="A205" t="s">
         <v>204</v>
       </c>
-      <c r="B205" s="0">
+      <c r="B205" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2648,7 +2650,7 @@
       <c r="A206" t="s">
         <v>205</v>
       </c>
-      <c r="B206" s="0">
+      <c r="B206" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2656,7 +2658,7 @@
       <c r="A207" t="s">
         <v>206</v>
       </c>
-      <c r="B207" s="0">
+      <c r="B207" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2664,7 +2666,7 @@
       <c r="A208" t="s">
         <v>207</v>
       </c>
-      <c r="B208" s="0">
+      <c r="B208" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2672,7 +2674,7 @@
       <c r="A209" t="s">
         <v>208</v>
       </c>
-      <c r="B209" s="0">
+      <c r="B209" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2680,7 +2682,7 @@
       <c r="A210" t="s">
         <v>209</v>
       </c>
-      <c r="B210" s="0">
+      <c r="B210" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2688,7 +2690,7 @@
       <c r="A211" t="s">
         <v>210</v>
       </c>
-      <c r="B211" s="0">
+      <c r="B211" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2696,7 +2698,7 @@
       <c r="A212" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="0">
+      <c r="B212" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2704,7 +2706,7 @@
       <c r="A213" t="s">
         <v>212</v>
       </c>
-      <c r="B213" s="0">
+      <c r="B213" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2712,7 +2714,7 @@
       <c r="A214" t="s">
         <v>213</v>
       </c>
-      <c r="B214" s="0">
+      <c r="B214" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2720,7 +2722,7 @@
       <c r="A215" t="s">
         <v>214</v>
       </c>
-      <c r="B215" s="0">
+      <c r="B215" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2728,7 +2730,7 @@
       <c r="A216" t="s">
         <v>215</v>
       </c>
-      <c r="B216" s="0">
+      <c r="B216" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2736,7 +2738,7 @@
       <c r="A217" t="s">
         <v>216</v>
       </c>
-      <c r="B217" s="0">
+      <c r="B217" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2744,7 +2746,7 @@
       <c r="A218" t="s">
         <v>217</v>
       </c>
-      <c r="B218" s="0">
+      <c r="B218" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2752,7 +2754,7 @@
       <c r="A219" t="s">
         <v>218</v>
       </c>
-      <c r="B219" s="0">
+      <c r="B219" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2760,7 +2762,7 @@
       <c r="A220" t="s">
         <v>219</v>
       </c>
-      <c r="B220" s="0">
+      <c r="B220" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2768,7 +2770,7 @@
       <c r="A221" t="s">
         <v>220</v>
       </c>
-      <c r="B221" s="0">
+      <c r="B221" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2776,7 +2778,7 @@
       <c r="A222" t="s">
         <v>221</v>
       </c>
-      <c r="B222" s="0">
+      <c r="B222" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2784,7 +2786,7 @@
       <c r="A223" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="0">
+      <c r="B223" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2792,7 +2794,7 @@
       <c r="A224" t="s">
         <v>223</v>
       </c>
-      <c r="B224" s="0">
+      <c r="B224" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2800,7 +2802,7 @@
       <c r="A225" t="s">
         <v>224</v>
       </c>
-      <c r="B225" s="0">
+      <c r="B225" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2808,7 +2810,7 @@
       <c r="A226" t="s">
         <v>225</v>
       </c>
-      <c r="B226" s="0">
+      <c r="B226" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2816,7 +2818,7 @@
       <c r="A227" t="s">
         <v>226</v>
       </c>
-      <c r="B227" s="0">
+      <c r="B227" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2824,7 +2826,7 @@
       <c r="A228" t="s">
         <v>227</v>
       </c>
-      <c r="B228" s="0">
+      <c r="B228" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2832,7 +2834,7 @@
       <c r="A229" t="s">
         <v>228</v>
       </c>
-      <c r="B229" s="0">
+      <c r="B229" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2840,7 +2842,7 @@
       <c r="A230" t="s">
         <v>229</v>
       </c>
-      <c r="B230" s="0">
+      <c r="B230" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2848,7 +2850,7 @@
       <c r="A231" t="s">
         <v>230</v>
       </c>
-      <c r="B231" s="0">
+      <c r="B231" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2856,7 +2858,7 @@
       <c r="A232" t="s">
         <v>231</v>
       </c>
-      <c r="B232" s="0">
+      <c r="B232" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2864,7 +2866,7 @@
       <c r="A233" t="s">
         <v>232</v>
       </c>
-      <c r="B233" s="0">
+      <c r="B233" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2872,7 +2874,7 @@
       <c r="A234" t="s">
         <v>233</v>
       </c>
-      <c r="B234" s="0">
+      <c r="B234" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2880,7 +2882,7 @@
       <c r="A235" t="s">
         <v>234</v>
       </c>
-      <c r="B235" s="0">
+      <c r="B235" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2888,7 +2890,7 @@
       <c r="A236" t="s">
         <v>235</v>
       </c>
-      <c r="B236" s="0">
+      <c r="B236" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2896,7 +2898,7 @@
       <c r="A237" t="s">
         <v>236</v>
       </c>
-      <c r="B237" s="0">
+      <c r="B237" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2904,7 +2906,7 @@
       <c r="A238" t="s">
         <v>237</v>
       </c>
-      <c r="B238" s="0">
+      <c r="B238" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2912,7 +2914,7 @@
       <c r="A239" t="s">
         <v>238</v>
       </c>
-      <c r="B239" s="0">
+      <c r="B239" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2920,7 +2922,7 @@
       <c r="A240" t="s">
         <v>239</v>
       </c>
-      <c r="B240" s="0">
+      <c r="B240" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2928,7 +2930,7 @@
       <c r="A241" t="s">
         <v>240</v>
       </c>
-      <c r="B241" s="0">
+      <c r="B241" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2936,7 +2938,7 @@
       <c r="A242" t="s">
         <v>241</v>
       </c>
-      <c r="B242" s="0">
+      <c r="B242" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2944,7 +2946,7 @@
       <c r="A243" t="s">
         <v>242</v>
       </c>
-      <c r="B243" s="0">
+      <c r="B243" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2952,7 +2954,7 @@
       <c r="A244" t="s">
         <v>243</v>
       </c>
-      <c r="B244" s="0">
+      <c r="B244" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2960,7 +2962,7 @@
       <c r="A245" t="s">
         <v>244</v>
       </c>
-      <c r="B245" s="0">
+      <c r="B245" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2968,7 +2970,7 @@
       <c r="A246" t="s">
         <v>245</v>
       </c>
-      <c r="B246" s="0">
+      <c r="B246" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2976,7 +2978,7 @@
       <c r="A247" t="s">
         <v>246</v>
       </c>
-      <c r="B247" s="0">
+      <c r="B247" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2984,7 +2986,7 @@
       <c r="A248" t="s">
         <v>247</v>
       </c>
-      <c r="B248" s="0">
+      <c r="B248" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2992,7 +2994,7 @@
       <c r="A249" t="s">
         <v>248</v>
       </c>
-      <c r="B249" s="0">
+      <c r="B249" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3000,7 +3002,7 @@
       <c r="A250" t="s">
         <v>249</v>
       </c>
-      <c r="B250" s="0">
+      <c r="B250" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3008,7 +3010,7 @@
       <c r="A251" t="s">
         <v>250</v>
       </c>
-      <c r="B251" s="0">
+      <c r="B251" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3016,7 +3018,7 @@
       <c r="A252" t="s">
         <v>251</v>
       </c>
-      <c r="B252" s="0">
+      <c r="B252" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3024,7 +3026,7 @@
       <c r="A253" t="s">
         <v>252</v>
       </c>
-      <c r="B253" s="0">
+      <c r="B253" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3032,7 +3034,7 @@
       <c r="A254" t="s">
         <v>253</v>
       </c>
-      <c r="B254" s="0">
+      <c r="B254" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3040,7 +3042,7 @@
       <c r="A255" t="s">
         <v>254</v>
       </c>
-      <c r="B255" s="0">
+      <c r="B255" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3048,7 +3050,7 @@
       <c r="A256" t="s">
         <v>255</v>
       </c>
-      <c r="B256" s="0">
+      <c r="B256" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3056,7 +3058,7 @@
       <c r="A257" t="s">
         <v>256</v>
       </c>
-      <c r="B257" s="0">
+      <c r="B257" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3064,7 +3066,7 @@
       <c r="A258" t="s">
         <v>257</v>
       </c>
-      <c r="B258" s="0">
+      <c r="B258" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3072,7 +3074,7 @@
       <c r="A259" t="s">
         <v>258</v>
       </c>
-      <c r="B259" s="0">
+      <c r="B259" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3080,7 +3082,7 @@
       <c r="A260" t="s">
         <v>259</v>
       </c>
-      <c r="B260" s="0">
+      <c r="B260" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3088,7 +3090,7 @@
       <c r="A261" t="s">
         <v>260</v>
       </c>
-      <c r="B261" s="0">
+      <c r="B261" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3096,7 +3098,7 @@
       <c r="A262" t="s">
         <v>261</v>
       </c>
-      <c r="B262" s="0">
+      <c r="B262" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3104,7 +3106,7 @@
       <c r="A263" t="s">
         <v>262</v>
       </c>
-      <c r="B263" s="0">
+      <c r="B263" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3112,7 +3114,7 @@
       <c r="A264" t="s">
         <v>263</v>
       </c>
-      <c r="B264" s="0">
+      <c r="B264" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3120,7 +3122,7 @@
       <c r="A265" t="s">
         <v>264</v>
       </c>
-      <c r="B265" s="0">
+      <c r="B265" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3128,7 +3130,7 @@
       <c r="A266" t="s">
         <v>265</v>
       </c>
-      <c r="B266" s="0">
+      <c r="B266" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3136,7 +3138,7 @@
       <c r="A267" t="s">
         <v>266</v>
       </c>
-      <c r="B267" s="0">
+      <c r="B267" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3144,7 +3146,7 @@
       <c r="A268" t="s">
         <v>267</v>
       </c>
-      <c r="B268" s="0">
+      <c r="B268" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3152,7 +3154,7 @@
       <c r="A269" t="s">
         <v>268</v>
       </c>
-      <c r="B269" s="0">
+      <c r="B269" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3160,7 +3162,7 @@
       <c r="A270" t="s">
         <v>269</v>
       </c>
-      <c r="B270" s="0">
+      <c r="B270" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3168,7 +3170,7 @@
       <c r="A271" t="s">
         <v>270</v>
       </c>
-      <c r="B271" s="0">
+      <c r="B271" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3176,7 +3178,7 @@
       <c r="A272" t="s">
         <v>271</v>
       </c>
-      <c r="B272" s="0">
+      <c r="B272" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3184,7 +3186,7 @@
       <c r="A273" t="s">
         <v>272</v>
       </c>
-      <c r="B273" s="0">
+      <c r="B273" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3192,7 +3194,7 @@
       <c r="A274" t="s">
         <v>273</v>
       </c>
-      <c r="B274" s="0">
+      <c r="B274" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3200,7 +3202,7 @@
       <c r="A275" t="s">
         <v>274</v>
       </c>
-      <c r="B275" s="0">
+      <c r="B275" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3208,7 +3210,7 @@
       <c r="A276" t="s">
         <v>275</v>
       </c>
-      <c r="B276" s="0">
+      <c r="B276" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3216,7 +3218,7 @@
       <c r="A277" t="s">
         <v>276</v>
       </c>
-      <c r="B277" s="0">
+      <c r="B277" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3224,7 +3226,7 @@
       <c r="A278" t="s">
         <v>277</v>
       </c>
-      <c r="B278" s="0">
+      <c r="B278" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3232,7 +3234,7 @@
       <c r="A279" t="s">
         <v>278</v>
       </c>
-      <c r="B279" s="0">
+      <c r="B279" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3240,7 +3242,7 @@
       <c r="A280" t="s">
         <v>279</v>
       </c>
-      <c r="B280" s="0">
+      <c r="B280" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3248,7 +3250,7 @@
       <c r="A281" t="s">
         <v>280</v>
       </c>
-      <c r="B281" s="0">
+      <c r="B281" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3256,7 +3258,7 @@
       <c r="A282" t="s">
         <v>281</v>
       </c>
-      <c r="B282" s="0">
+      <c r="B282" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3264,7 +3266,7 @@
       <c r="A283" t="s">
         <v>282</v>
       </c>
-      <c r="B283" s="0">
+      <c r="B283" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3272,7 +3274,7 @@
       <c r="A284" t="s">
         <v>283</v>
       </c>
-      <c r="B284" s="0">
+      <c r="B284" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3280,7 +3282,7 @@
       <c r="A285" t="s">
         <v>284</v>
       </c>
-      <c r="B285" s="0">
+      <c r="B285" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3288,7 +3290,7 @@
       <c r="A286" t="s">
         <v>285</v>
       </c>
-      <c r="B286" s="0">
+      <c r="B286" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3296,7 +3298,7 @@
       <c r="A287" t="s">
         <v>286</v>
       </c>
-      <c r="B287" s="0">
+      <c r="B287" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3304,7 +3306,7 @@
       <c r="A288" t="s">
         <v>287</v>
       </c>
-      <c r="B288" s="0">
+      <c r="B288" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3312,7 +3314,7 @@
       <c r="A289" t="s">
         <v>288</v>
       </c>
-      <c r="B289" s="0">
+      <c r="B289" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3320,7 +3322,7 @@
       <c r="A290" t="s">
         <v>289</v>
       </c>
-      <c r="B290" s="0">
+      <c r="B290" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3328,7 +3330,7 @@
       <c r="A291" t="s">
         <v>290</v>
       </c>
-      <c r="B291" s="0">
+      <c r="B291" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3336,7 +3338,7 @@
       <c r="A292" t="s">
         <v>291</v>
       </c>
-      <c r="B292" s="0">
+      <c r="B292" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3344,7 +3346,7 @@
       <c r="A293" t="s">
         <v>292</v>
       </c>
-      <c r="B293" s="0">
+      <c r="B293" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3352,7 +3354,7 @@
       <c r="A294" t="s">
         <v>293</v>
       </c>
-      <c r="B294" s="0">
+      <c r="B294" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3360,7 +3362,7 @@
       <c r="A295" t="s">
         <v>294</v>
       </c>
-      <c r="B295" s="0">
+      <c r="B295" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3368,7 +3370,7 @@
       <c r="A296" t="s">
         <v>295</v>
       </c>
-      <c r="B296" s="0">
+      <c r="B296" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3376,7 +3378,7 @@
       <c r="A297" t="s">
         <v>296</v>
       </c>
-      <c r="B297" s="0">
+      <c r="B297" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3384,7 +3386,7 @@
       <c r="A298" t="s">
         <v>297</v>
       </c>
-      <c r="B298" s="0">
+      <c r="B298" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3392,7 +3394,7 @@
       <c r="A299" t="s">
         <v>298</v>
       </c>
-      <c r="B299" s="0">
+      <c r="B299" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3400,7 +3402,7 @@
       <c r="A300" t="s">
         <v>299</v>
       </c>
-      <c r="B300" s="0">
+      <c r="B300" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3408,7 +3410,7 @@
       <c r="A301" t="s">
         <v>300</v>
       </c>
-      <c r="B301" s="0">
+      <c r="B301" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3416,7 +3418,7 @@
       <c r="A302" t="s">
         <v>301</v>
       </c>
-      <c r="B302" s="0">
+      <c r="B302" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3424,7 +3426,7 @@
       <c r="A303" t="s">
         <v>302</v>
       </c>
-      <c r="B303" s="0">
+      <c r="B303" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3432,7 +3434,7 @@
       <c r="A304" t="s">
         <v>303</v>
       </c>
-      <c r="B304" s="0">
+      <c r="B304" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3440,7 +3442,7 @@
       <c r="A305" t="s">
         <v>304</v>
       </c>
-      <c r="B305" s="0">
+      <c r="B305" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3448,7 +3450,7 @@
       <c r="A306" t="s">
         <v>305</v>
       </c>
-      <c r="B306" s="0">
+      <c r="B306" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3456,7 +3458,7 @@
       <c r="A307" t="s">
         <v>306</v>
       </c>
-      <c r="B307" s="0">
+      <c r="B307" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3464,7 +3466,7 @@
       <c r="A308" t="s">
         <v>307</v>
       </c>
-      <c r="B308" s="0">
+      <c r="B308" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3472,7 +3474,7 @@
       <c r="A309" t="s">
         <v>308</v>
       </c>
-      <c r="B309" s="0">
+      <c r="B309" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3480,7 +3482,7 @@
       <c r="A310" t="s">
         <v>309</v>
       </c>
-      <c r="B310" s="0">
+      <c r="B310" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3488,7 +3490,7 @@
       <c r="A311" t="s">
         <v>310</v>
       </c>
-      <c r="B311" s="0">
+      <c r="B311" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3496,7 +3498,7 @@
       <c r="A312" t="s">
         <v>311</v>
       </c>
-      <c r="B312" s="0">
+      <c r="B312" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3504,7 +3506,7 @@
       <c r="A313" t="s">
         <v>312</v>
       </c>
-      <c r="B313" s="0">
+      <c r="B313" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3512,7 +3514,7 @@
       <c r="A314" t="s">
         <v>313</v>
       </c>
-      <c r="B314" s="0">
+      <c r="B314" s="1">
         <v>1</v>
       </c>
     </row>
